--- a/evaluation/issues/issues.xlsx
+++ b/evaluation/issues/issues.xlsx
@@ -25,19 +25,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="221">
   <si>
-    <t xml:space="preserve">Projeto</t>
+    <t xml:space="preserve">Project</t>
   </si>
   <si>
-    <t xml:space="preserve">Número da issue</t>
+    <t xml:space="preserve">Issue number</t>
   </si>
   <si>
     <t xml:space="preserve">Issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantidade de falhas reportadas Geral</t>
+    <t xml:space="preserve">Number of faults reported General</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantidade de falhas reportadas por issue</t>
+    <t xml:space="preserve">Number of faults reported per issue</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -46,10 +46,28 @@
     <t xml:space="preserve">Fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">Coluna 02</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 02</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Comentários</t>
+    <t xml:space="preserve">Comments</t>
   </si>
   <si>
     <t xml:space="preserve">Wikipedia</t>
@@ -719,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -748,6 +766,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -873,7 +897,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,11 +906,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -898,15 +926,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,15 +942,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,7 +958,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -938,7 +966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,12 +983,89 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF3D3D3D"/>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0097A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1155CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1039,11 +1144,11 @@
   </sheetPr>
   <dimension ref="A1:AD1023"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
@@ -1053,7 +1158,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1180,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1107,19 +1212,19 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1"/>
@@ -1155,22 +1260,22 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1203,28 +1308,28 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1251,14 +1356,14 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9" t="n">
+      <c r="D5" s="5"/>
+      <c r="E5" s="10" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1300,19 +1405,19 @@
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1348,14 +1453,14 @@
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1"/>
@@ -1394,19 +1499,19 @@
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1442,17 +1547,17 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9" t="n">
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1484,14 +1589,14 @@
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9" t="n">
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1"/>
@@ -1530,16 +1635,16 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1"/>
@@ -1578,16 +1683,16 @@
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1"/>
@@ -1626,22 +1731,22 @@
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>27</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1676,17 +1781,17 @@
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9" t="n">
+      <c r="D14" s="5"/>
+      <c r="E14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1766,10 +1871,10 @@
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -1856,10 +1961,10 @@
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="n">
@@ -1868,7 +1973,7 @@
       <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1900,19 +2005,19 @@
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1948,17 +2053,17 @@
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9" t="n">
+      <c r="D20" s="5"/>
+      <c r="E20" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1994,7 +2099,7 @@
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -2206,10 +2311,10 @@
       <c r="B26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -2218,7 +2323,7 @@
       <c r="F26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2292,10 +2397,10 @@
       <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -2304,7 +2409,7 @@
       <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2378,19 +2483,19 @@
       <c r="B30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2426,10 +2531,10 @@
       <c r="B31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="n">
@@ -2438,7 +2543,7 @@
       <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2470,10 +2575,10 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -2482,7 +2587,7 @@
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2514,16 +2619,16 @@
       <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="1"/>
@@ -2604,10 +2709,10 @@
       <c r="B35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -2736,10 +2841,10 @@
       <c r="B38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -2748,7 +2853,7 @@
       <c r="F38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2780,16 +2885,16 @@
       <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="1"/>
@@ -2828,17 +2933,17 @@
       <c r="B40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="9" t="n">
+      <c r="D40" s="5"/>
+      <c r="E40" s="10" t="n">
         <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2870,16 +2975,16 @@
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>11</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="1"/>
@@ -2916,19 +3021,19 @@
       <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>99</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -2964,16 +3069,16 @@
       <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="1"/>
@@ -3012,10 +3117,10 @@
       <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="n">
@@ -3024,7 +3129,7 @@
       <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3056,20 +3161,20 @@
       <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="16" t="s">
         <v>96</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3104,16 +3209,16 @@
       <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="1"/>
@@ -3152,10 +3257,10 @@
       <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="5" t="n">
         <v>17</v>
       </c>
       <c r="E47" s="1" t="n">
@@ -3164,7 +3269,7 @@
       <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3196,17 +3301,17 @@
       <c r="B48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="9" t="n">
+      <c r="D48" s="5"/>
+      <c r="E48" s="10" t="n">
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3238,16 +3343,16 @@
       <c r="B49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="5" t="n">
         <v>13</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1"/>
@@ -3286,17 +3391,17 @@
       <c r="B50" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="9" t="n">
+      <c r="D50" s="5"/>
+      <c r="E50" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="16"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="1" t="s">
         <v>12</v>
       </c>
@@ -3332,10 +3437,10 @@
       <c r="B51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="n">
@@ -3344,7 +3449,7 @@
       <c r="F51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="13"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3376,10 +3481,10 @@
       <c r="B52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="n">
@@ -3388,7 +3493,7 @@
       <c r="F52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="13"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3420,10 +3525,10 @@
       <c r="B53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E53" s="1" t="n">
@@ -3432,7 +3537,7 @@
       <c r="F53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="13"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3464,10 +3569,10 @@
       <c r="B54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="n">
@@ -3554,16 +3659,16 @@
       <c r="B56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -3601,17 +3706,17 @@
       <c r="B57" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="9" t="n">
+      <c r="D57" s="5"/>
+      <c r="E57" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3643,19 +3748,19 @@
       <c r="B58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -3691,14 +3796,14 @@
       <c r="B59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="9" t="n">
+      <c r="D59" s="5"/>
+      <c r="E59" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="1"/>
@@ -3737,16 +3842,16 @@
       <c r="B60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="1"/>
@@ -3785,10 +3890,10 @@
       <c r="B61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="n">
@@ -3797,7 +3902,7 @@
       <c r="F61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3829,17 +3934,17 @@
       <c r="B62" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="9" t="n">
+      <c r="D62" s="5"/>
+      <c r="E62" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="14"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3871,10 +3976,10 @@
       <c r="B63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E63" s="1" t="n">
@@ -3883,7 +3988,7 @@
       <c r="F63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3915,17 +4020,17 @@
       <c r="B64" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="9" t="n">
+      <c r="D64" s="5"/>
+      <c r="E64" s="10" t="n">
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="14"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3957,19 +4062,19 @@
       <c r="B65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>147</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -4005,14 +4110,14 @@
       <c r="B66" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="9" t="n">
+      <c r="D66" s="5"/>
+      <c r="E66" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="1"/>
@@ -4051,16 +4156,16 @@
       <c r="B67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="1"/>
@@ -4099,17 +4204,17 @@
       <c r="B68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="9" t="n">
+      <c r="D68" s="5"/>
+      <c r="E68" s="10" t="n">
         <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="13"/>
+      <c r="G68" s="14"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4141,19 +4246,19 @@
       <c r="B69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="9" t="s">
         <v>156</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -4189,19 +4294,19 @@
       <c r="B70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>158</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -4237,16 +4342,16 @@
       <c r="B71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="1"/>
@@ -4283,19 +4388,19 @@
       <c r="B72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="13"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="1" t="s">
         <v>96</v>
       </c>
@@ -4331,17 +4436,17 @@
       <c r="B73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="9" t="n">
+      <c r="D73" s="5"/>
+      <c r="E73" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="13"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="1" t="s">
         <v>96</v>
       </c>
@@ -4377,16 +4482,16 @@
       <c r="B74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="4" t="n">
+      <c r="D74" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="1"/>
@@ -4423,19 +4528,19 @@
       <c r="B75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="4" t="n">
+      <c r="D75" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="13"/>
+      <c r="G75" s="14"/>
       <c r="H75" s="1" t="s">
         <v>12</v>
       </c>
@@ -4471,10 +4576,10 @@
       <c r="B76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E76" s="1" t="n">
@@ -4483,7 +4588,7 @@
       <c r="F76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G76" s="13"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4515,17 +4620,17 @@
       <c r="B77" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="9" t="n">
+      <c r="D77" s="5"/>
+      <c r="E77" s="10" t="n">
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="13"/>
+      <c r="G77" s="14"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4557,16 +4662,16 @@
       <c r="B78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="4" t="n">
+      <c r="D78" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="1"/>
@@ -4605,14 +4710,14 @@
       <c r="B79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="9" t="n">
+      <c r="D79" s="5"/>
+      <c r="E79" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="1"/>
@@ -4651,10 +4756,10 @@
       <c r="B80" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="4" t="n">
+      <c r="D80" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E80" s="1" t="n">
@@ -4663,7 +4768,7 @@
       <c r="F80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G80" s="13"/>
+      <c r="G80" s="14"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4695,10 +4800,10 @@
       <c r="B81" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D81" s="4" t="n">
+      <c r="D81" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="n">
@@ -4707,7 +4812,7 @@
       <c r="F81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="13"/>
+      <c r="G81" s="14"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4739,19 +4844,19 @@
       <c r="B82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="4" t="n">
+      <c r="D82" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -4787,17 +4892,17 @@
       <c r="B83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="9" t="n">
+      <c r="D83" s="5"/>
+      <c r="E83" s="10" t="n">
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="13"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4829,10 +4934,10 @@
       <c r="B84" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="4" t="n">
+      <c r="D84" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E84" s="1" t="n">
@@ -4841,7 +4946,7 @@
       <c r="F84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="13"/>
+      <c r="G84" s="14"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4873,10 +4978,10 @@
       <c r="B85" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="n">
@@ -4921,10 +5026,10 @@
       <c r="B86" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="4" t="n">
+      <c r="D86" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E86" s="1" t="n">
@@ -4933,7 +5038,7 @@
       <c r="F86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G86" s="13"/>
+      <c r="G86" s="14"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4965,10 +5070,10 @@
       <c r="B87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="4" t="n">
+      <c r="D87" s="5" t="n">
         <v>9</v>
       </c>
       <c r="E87" s="1" t="n">
@@ -4977,7 +5082,7 @@
       <c r="F87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G87" s="13"/>
+      <c r="G87" s="14"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -5009,17 +5114,17 @@
       <c r="B88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="9" t="n">
+      <c r="D88" s="5"/>
+      <c r="E88" s="10" t="n">
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G88" s="13"/>
+      <c r="G88" s="14"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -5051,16 +5156,16 @@
       <c r="B89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D89" s="4" t="n">
+      <c r="D89" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="1"/>
@@ -5097,19 +5202,19 @@
       <c r="B90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="4" t="n">
+      <c r="D90" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="9" t="s">
         <v>199</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -5145,20 +5250,20 @@
       <c r="B91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D91" s="4" t="n">
+      <c r="D91" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="1"/>
-      <c r="H91" s="15" t="s">
+      <c r="H91" s="16" t="s">
         <v>96</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -5193,17 +5298,17 @@
       <c r="B92" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="9" t="n">
+      <c r="D92" s="5"/>
+      <c r="E92" s="10" t="n">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G92" s="13"/>
+      <c r="G92" s="14"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -5235,16 +5340,16 @@
       <c r="B93" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="4" t="n">
+      <c r="D93" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="1"/>
@@ -5283,16 +5388,16 @@
       <c r="B94" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D94" s="4" t="n">
+      <c r="D94" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="1"/>
@@ -5331,16 +5436,16 @@
       <c r="B95" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="4" t="n">
+      <c r="D95" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="1"/>
@@ -5377,10 +5482,10 @@
       <c r="B96" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="4" t="n">
+      <c r="D96" s="5" t="n">
         <v>12</v>
       </c>
       <c r="E96" s="1" t="n">
@@ -5389,7 +5494,7 @@
       <c r="F96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="13"/>
+      <c r="G96" s="14"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5421,17 +5526,17 @@
       <c r="B97" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="9" t="n">
+      <c r="D97" s="5"/>
+      <c r="E97" s="10" t="n">
         <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G97" s="13"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -5463,10 +5568,10 @@
       <c r="B98" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D98" s="4" t="n">
+      <c r="D98" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="n">
@@ -5475,7 +5580,7 @@
       <c r="F98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="13"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -5507,10 +5612,10 @@
       <c r="B99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D99" s="4" t="n">
+      <c r="D99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="n">
@@ -5519,7 +5624,7 @@
       <c r="F99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G99" s="13"/>
+      <c r="G99" s="14"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5551,16 +5656,16 @@
       <c r="B100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D100" s="4" t="n">
+      <c r="D100" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="1"/>
@@ -5946,7 +6051,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
-      <c r="B112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
